--- a/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/all-profiles.xlsx
+++ b/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T12:16:03+00:00</t>
+    <t>2023-02-13T12:20:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/all-profiles.xlsx
+++ b/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T12:20:57+00:00</t>
+    <t>2023-02-13T12:39:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -13624,7 +13624,7 @@
         <v>76</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>78</v>
@@ -18438,7 +18438,7 @@
         <v>76</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I109" t="s" s="2">
         <v>78</v>

--- a/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/all-profiles.xlsx
+++ b/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T12:39:54+00:00</t>
+    <t>2023-02-13T19:08:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -28418,10 +28418,10 @@
       </c>
       <c r="F204" s="2"/>
       <c r="G204" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H204" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I204" t="s" s="2">
         <v>78</v>

--- a/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/all-profiles.xlsx
+++ b/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T19:08:35+00:00</t>
+    <t>2023-02-13T19:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/all-profiles.xlsx
+++ b/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T19:10:14+00:00</t>
+    <t>2023-02-13T19:11:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/all-profiles.xlsx
+++ b/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T19:11:03+00:00</t>
+    <t>2023-02-14T09:42:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2778,7 +2778,7 @@
     <t>The type can be very important in processing as this could be used in determining if the EpisodeOfCare is relevant to specific government reporting, or other types of classifications.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-enrollment-type</t>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-patient-enrollment-type</t>
   </si>
   <si>
     <t>EpisodeOfCare.diagnosis</t>
@@ -37942,7 +37942,7 @@
         <v>83</v>
       </c>
       <c r="H295" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I295" t="s" s="2">
         <v>78</v>

--- a/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/all-profiles.xlsx
+++ b/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T09:42:47+00:00</t>
+    <t>2023-02-14T09:43:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
